--- a/src/assets/public/Bulkreseller.xlsx
+++ b/src/assets/public/Bulkreseller.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nividha\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D8066-4D34-461A-8820-2F81219D566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="728">
-  <si>
-    <t>Reseller Profile</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="730">
   <si>
     <t>Reseller Under</t>
   </si>
@@ -39,9 +42,6 @@
     <t>Sub Distributor Deposit</t>
   </si>
   <si>
-    <t>Service Type</t>
-  </si>
-  <si>
     <t>Bandwidth Rate</t>
   </si>
   <si>
@@ -114,72 +114,27 @@
     <t>Addon Reseller Share</t>
   </si>
   <si>
-    <t>Reseller Business Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Alternate Email</t>
   </si>
   <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Telephone Number</t>
   </si>
   <si>
-    <t>Residential Address</t>
-  </si>
-  <si>
-    <t>Reseller Login ID</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Branch Name</t>
-  </si>
-  <si>
     <t>GST Number</t>
   </si>
   <si>
-    <t>Business Address</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>Subscriber Limit</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Nas Name</t>
   </si>
   <si>
-    <t>Agreement Start Date</t>
-  </si>
-  <si>
-    <t>Agreement End Date</t>
-  </si>
-  <si>
     <t>Andaman and Nicobar (AN)</t>
   </si>
   <si>
@@ -2203,20 +2158,73 @@
   </si>
   <si>
     <t>Uttar Dinajpur</t>
+  </si>
+  <si>
+    <t>Reseller Profile*</t>
+  </si>
+  <si>
+    <t>Reseller Business Name*</t>
+  </si>
+  <si>
+    <t>First Name*</t>
+  </si>
+  <si>
+    <t>Last Name*</t>
+  </si>
+  <si>
+    <t>Gender*</t>
+  </si>
+  <si>
+    <t>Email*</t>
+  </si>
+  <si>
+    <t>Mobile Number*</t>
+  </si>
+  <si>
+    <t>Residential Address*</t>
+  </si>
+  <si>
+    <t>Reseller Login ID*</t>
+  </si>
+  <si>
+    <t>Password*</t>
+  </si>
+  <si>
+    <t>Branch Name*</t>
+  </si>
+  <si>
+    <t>Business Address*</t>
+  </si>
+  <si>
+    <t>State*</t>
+  </si>
+  <si>
+    <t>City*</t>
+  </si>
+  <si>
+    <t>Subscriber Limit*</t>
+  </si>
+  <si>
+    <t>Status*</t>
+  </si>
+  <si>
+    <t>Agreement Start Date*</t>
+  </si>
+  <si>
+    <t>Agreement End Date*</t>
+  </si>
+  <si>
+    <t>Service Type*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2242,346 +2250,16 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2589,327 +2267,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:A36" totalsRowShown="0">
-  <autoFilter ref="A1:A36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:A36" totalsRowShown="0">
+  <autoFilter ref="A1:A36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="State"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="State"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3194,215 +2586,213 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA1048563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="14.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="19.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="9.14285714285714" customWidth="1"/>
-    <col min="11" max="11" width="13.7142857142857" customWidth="1"/>
-    <col min="12" max="12" width="14.7142857142857" customWidth="1"/>
-    <col min="13" max="14" width="13.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="13.8571428571429" customWidth="1"/>
-    <col min="17" max="17" width="19.4285714285714" customWidth="1"/>
-    <col min="18" max="18" width="20.5714285714286" customWidth="1"/>
-    <col min="19" max="31" width="20.8571428571429" customWidth="1"/>
-    <col min="32" max="32" width="22.5714285714286" customWidth="1"/>
-    <col min="33" max="33" width="10.5714285714286" customWidth="1"/>
-    <col min="34" max="34" width="10.1428571428571" customWidth="1"/>
-    <col min="37" max="37" width="14.8571428571429" customWidth="1"/>
-    <col min="38" max="38" width="15.1428571428571" customWidth="1"/>
-    <col min="39" max="39" width="18.5714285714286" customWidth="1"/>
-    <col min="40" max="40" width="18.8571428571429" customWidth="1"/>
-    <col min="41" max="41" width="15.8571428571429" customWidth="1"/>
-    <col min="43" max="44" width="12.7142857142857" customWidth="1"/>
-    <col min="45" max="45" width="16.4285714285714" customWidth="1"/>
-    <col min="46" max="46" width="17.1428571428571" customWidth="1"/>
-    <col min="47" max="47" width="15.7142857142857" customWidth="1"/>
-    <col min="48" max="48" width="15.2857142857143" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="31" width="20.85546875" customWidth="1"/>
+    <col min="32" max="32" width="22.5703125" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" customWidth="1"/>
+    <col min="34" max="34" width="10.140625" customWidth="1"/>
+    <col min="37" max="37" width="14.85546875" customWidth="1"/>
+    <col min="38" max="38" width="15.140625" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" customWidth="1"/>
+    <col min="40" max="40" width="18.85546875" customWidth="1"/>
+    <col min="41" max="41" width="15.85546875" customWidth="1"/>
+    <col min="43" max="44" width="12.7109375" customWidth="1"/>
+    <col min="45" max="47" width="16.42578125" customWidth="1"/>
+    <col min="48" max="48" width="15.28515625" customWidth="1"/>
     <col min="51" max="51" width="10" customWidth="1"/>
-    <col min="52" max="52" width="20.4285714285714" style="4" customWidth="1"/>
-    <col min="53" max="53" width="19.5714285714286" style="4" customWidth="1"/>
+    <col min="52" max="52" width="20.42578125" style="4" customWidth="1"/>
+    <col min="53" max="53" width="19.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>713</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>714</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>715</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>716</v>
+      </c>
+      <c r="AK1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" t="s">
+        <v>717</v>
+      </c>
+      <c r="AM1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AN1" t="s">
+        <v>718</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>719</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>720</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AR1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AS1" t="s">
+        <v>722</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>723</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>725</v>
+      </c>
+      <c r="AW1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AX1" t="s">
+        <v>726</v>
+      </c>
+      <c r="AY1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
       <c r="AZ1" t="s">
-        <v>51</v>
+        <v>727</v>
       </c>
       <c r="BA1" t="s">
-        <v>52</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1048556" spans="11:11">
@@ -3431,3397 +2821,3394 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 U2:U1048576 AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 U2:U1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Share,Bulk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"SUB ISP Bulk,SUB ISP Deposit,Bulk Reseller,Deposit Reseller,Sub Distributor Bulk,Sub Distributor Deposit,Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"None,Sub ISP Bulk,Sub ISP Deposit,Sub Distributor Bulk,Sub Distributor Deposit"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Female,Male,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Internet,Internet &amp; Voice,Internet &amp; OTT,Internet &amp; AddOn,Internet&amp;Voice&amp;OTT,Internet&amp;Voice&amp;AddOn,Internet&amp;OTT&amp;AddOn,All Service"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 T2:T1048576 Z2:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 T2:T1048576 Z2:Z1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT$1:AT$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
+      <formula1>"Active,Inactive"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT2:AT1048576" xr:uid="{045475D2-5FB9-4A9A-8356-8E6A584347C6}">
       <formula1>rngState</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU$1:AU$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU1048576" xr:uid="{6C30B581-9319-47A8-97DB-8950F7A67389}">
       <formula1>rngCity</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX1048576">
-      <formula1>"Active,Inactive"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E646"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A612" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="20.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="E37" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="E38" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="E39" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="E40" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="E41" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="E42" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="E43" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="E44" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="E45" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="E46" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="E47" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="E48" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" s="3" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" s="3" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" s="3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" s="3" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" s="3" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" s="3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="5:5">
       <c r="E80" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="5:5">
       <c r="E82" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="5:5">
       <c r="E83" s="3" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="5:5">
       <c r="E85" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="5:5">
       <c r="E87" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="5:5">
       <c r="E88" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="5:5">
       <c r="E89" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="5:5">
       <c r="E90" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" s="3" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" s="3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" s="3" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" s="3" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="5:5">
       <c r="E106" s="3" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="5:5">
       <c r="E108" s="3" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="5:5">
       <c r="E111" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="3" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="5:5">
       <c r="E114" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="5:5">
       <c r="E115" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" s="3" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="5:5">
       <c r="E122" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="5:5">
       <c r="E123" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="5:5">
       <c r="E129" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="5:5">
       <c r="E131" s="3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="5:5">
       <c r="E133" s="3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" spans="5:5">
       <c r="E134" s="3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" s="3" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="5:5">
       <c r="E136" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="5:5">
       <c r="E138" s="3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="5:5">
       <c r="E139" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" s="3" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" s="3" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" s="3" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" s="3" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" s="3" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" s="3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="153" spans="5:5">
       <c r="E153" s="3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="5:5">
       <c r="E156" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="5:5">
       <c r="E157" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="158" spans="5:5">
       <c r="E158" s="3" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" s="3" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" s="3" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" spans="5:5">
       <c r="E161" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="162" spans="5:5">
       <c r="E162" s="3" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="163" spans="5:5">
       <c r="E163" s="3" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="164" spans="5:5">
       <c r="E164" s="3" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" spans="5:5">
       <c r="E165" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="5:5">
       <c r="E166" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="5:5">
       <c r="E167" s="3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="5:5">
       <c r="E168" s="3" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="169" spans="5:5">
       <c r="E169" s="3" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="170" spans="5:5">
       <c r="E170" s="3" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="171" spans="5:5">
       <c r="E171" s="3" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="172" spans="5:5">
       <c r="E172" s="3" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" spans="5:5">
       <c r="E173" s="3" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="5:5">
       <c r="E174" s="3" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="175" spans="5:5">
       <c r="E175" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="176" spans="5:5">
       <c r="E176" s="3" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="5:5">
       <c r="E177" s="3" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="5:5">
       <c r="E178" s="3" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="5:5">
       <c r="E179" s="3" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="5:5">
       <c r="E180" s="3" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="5:5">
       <c r="E181" s="3" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" spans="5:5">
       <c r="E182" s="3" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" s="3" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="5:5">
       <c r="E184" s="3" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="185" spans="5:5">
       <c r="E185" s="3" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="186" spans="5:5">
       <c r="E186" s="3" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="187" spans="5:5">
       <c r="E187" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="5:5">
       <c r="E188" s="3" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="5:5">
       <c r="E189" s="3" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="5:5">
       <c r="E190" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="191" spans="5:5">
       <c r="E191" s="3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="192" spans="5:5">
       <c r="E192" s="3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="5:5">
       <c r="E193" s="3" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="5:5">
       <c r="E194" s="3" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="5:5">
       <c r="E195" s="3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="5:5">
       <c r="E196" s="3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="197" spans="5:5">
       <c r="E197" s="3" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="5:5">
       <c r="E198" s="3" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="5:5">
       <c r="E199" s="3" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="200" spans="5:5">
       <c r="E200" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="5:5">
       <c r="E201" s="3" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="202" spans="5:5">
       <c r="E202" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="203" spans="5:5">
       <c r="E203" s="3" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="5:5">
       <c r="E204" s="3" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="5:5">
       <c r="E205" s="3" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="206" spans="5:5">
       <c r="E206" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="5:5">
       <c r="E207" s="3" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="208" spans="5:5">
       <c r="E208" s="3" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="209" spans="5:5">
       <c r="E209" s="3" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="210" spans="5:5">
       <c r="E210" s="3" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="211" spans="5:5">
       <c r="E211" s="3" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="212" spans="5:5">
       <c r="E212" s="3" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="5:5">
       <c r="E213" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214" spans="5:5">
       <c r="E214" s="3" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="215" spans="5:5">
       <c r="E215" s="3" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="216" spans="5:5">
       <c r="E216" s="3" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="217" spans="5:5">
       <c r="E217" s="3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="218" spans="5:5">
       <c r="E218" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="219" spans="5:5">
       <c r="E219" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="5:5">
       <c r="E220" s="3" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="221" spans="5:5">
       <c r="E221" s="3" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="222" spans="5:5">
       <c r="E222" s="3" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="223" spans="5:5">
       <c r="E223" s="3" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" spans="5:5">
       <c r="E224" s="3" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" spans="5:5">
       <c r="E225" s="3" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="226" spans="5:5">
       <c r="E226" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="227" spans="5:5">
       <c r="E227" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" spans="5:5">
       <c r="E228" s="3" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="229" spans="5:5">
       <c r="E229" s="3" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="230" spans="5:5">
       <c r="E230" s="3" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="231" spans="5:5">
       <c r="E231" s="3" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="232" spans="5:5">
       <c r="E232" s="3" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="233" spans="5:5">
       <c r="E233" s="3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="234" spans="5:5">
       <c r="E234" s="3" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="235" spans="5:5">
       <c r="E235" s="3" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="236" spans="5:5">
       <c r="E236" s="3" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="5:5">
       <c r="E237" s="3" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="238" spans="5:5">
       <c r="E238" s="3" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239" spans="5:5">
       <c r="E239" s="3" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="240" spans="5:5">
       <c r="E240" s="3" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="241" spans="5:5">
       <c r="E241" s="3" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="242" spans="5:5">
       <c r="E242" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="243" spans="5:5">
       <c r="E243" s="3" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" spans="5:5">
       <c r="E244" s="3" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="245" spans="5:5">
       <c r="E245" s="3" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="246" spans="5:5">
       <c r="E246" s="3" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="247" spans="5:5">
       <c r="E247" s="3" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="248" spans="5:5">
       <c r="E248" s="3" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="249" spans="5:5">
       <c r="E249" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="250" spans="5:5">
       <c r="E250" s="3" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="251" spans="5:5">
       <c r="E251" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="252" spans="5:5">
       <c r="E252" s="3" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="253" spans="5:5">
       <c r="E253" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="254" spans="5:5">
       <c r="E254" s="3" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="5:5">
       <c r="E255" s="3" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="5:5">
       <c r="E256" s="3" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="257" spans="5:5">
       <c r="E257" s="3" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="258" spans="5:5">
       <c r="E258" s="3" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="259" spans="5:5">
       <c r="E259" s="3" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="260" spans="5:5">
       <c r="E260" s="3" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="261" spans="5:5">
       <c r="E261" s="3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="262" spans="5:5">
       <c r="E262" s="3" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263" spans="5:5">
       <c r="E263" s="3" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="264" spans="5:5">
       <c r="E264" s="3" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="265" spans="5:5">
       <c r="E265" s="3" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="266" spans="5:5">
       <c r="E266" s="3" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="267" spans="5:5">
       <c r="E267" s="3" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="268" spans="5:5">
       <c r="E268" s="3" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="5:5">
       <c r="E269" s="3" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="270" spans="5:5">
       <c r="E270" s="3" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="271" spans="5:5">
       <c r="E271" s="3" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="272" spans="5:5">
       <c r="E272" s="3" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="5:5">
       <c r="E273" s="3" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="274" spans="5:5">
       <c r="E274" s="3" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="275" spans="5:5">
       <c r="E275" s="3" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="276" spans="5:5">
       <c r="E276" s="3" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="277" spans="5:5">
       <c r="E277" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="278" spans="5:5">
       <c r="E278" s="3" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="279" spans="5:5">
       <c r="E279" s="3" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="280" spans="5:5">
       <c r="E280" s="3" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="281" spans="5:5">
       <c r="E281" s="3" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="282" spans="5:5">
       <c r="E282" s="3" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="283" spans="5:5">
       <c r="E283" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="284" spans="5:5">
       <c r="E284" s="3" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="285" spans="5:5">
       <c r="E285" s="3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="286" spans="5:5">
       <c r="E286" s="3" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="287" spans="5:5">
       <c r="E287" s="3" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="288" spans="5:5">
       <c r="E288" s="3" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="289" spans="5:5">
       <c r="E289" s="3" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="290" spans="5:5">
       <c r="E290" s="3" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="291" spans="5:5">
       <c r="E291" s="3" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="292" spans="5:5">
       <c r="E292" s="3" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="293" spans="5:5">
       <c r="E293" s="3" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="294" spans="5:5">
       <c r="E294" s="3" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="295" spans="5:5">
       <c r="E295" s="3" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="296" spans="5:5">
       <c r="E296" s="3" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="297" spans="5:5">
       <c r="E297" s="3" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="298" spans="5:5">
       <c r="E298" s="3" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="299" spans="5:5">
       <c r="E299" s="3" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="300" spans="5:5">
       <c r="E300" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="301" spans="5:5">
       <c r="E301" s="3" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="302" spans="5:5">
       <c r="E302" s="3" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="303" spans="5:5">
       <c r="E303" s="3" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="304" spans="5:5">
       <c r="E304" s="3" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="305" spans="5:5">
       <c r="E305" s="3" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="5:5">
       <c r="E306" s="3" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="307" spans="5:5">
       <c r="E307" s="3" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="308" spans="5:5">
       <c r="E308" s="3" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="309" spans="5:5">
       <c r="E309" s="3" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="310" spans="5:5">
       <c r="E310" s="3" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="311" spans="5:5">
       <c r="E311" s="3" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="312" spans="5:5">
       <c r="E312" s="3" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="313" spans="5:5">
       <c r="E313" s="3" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="314" spans="5:5">
       <c r="E314" s="3" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="315" spans="5:5">
       <c r="E315" s="3" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="316" spans="5:5">
       <c r="E316" s="3" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="317" spans="5:5">
       <c r="E317" s="3" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="318" spans="5:5">
       <c r="E318" s="3" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="319" spans="5:5">
       <c r="E319" s="3" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="320" spans="5:5">
       <c r="E320" s="3" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="321" spans="5:5">
       <c r="E321" s="3" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="322" spans="5:5">
       <c r="E322" s="3" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="323" spans="5:5">
       <c r="E323" s="3" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="324" spans="5:5">
       <c r="E324" s="3" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="325" spans="5:5">
       <c r="E325" s="3" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="326" spans="5:5">
       <c r="E326" s="3" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="327" spans="5:5">
       <c r="E327" s="3" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="328" spans="5:5">
       <c r="E328" s="3" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="329" spans="5:5">
       <c r="E329" s="3" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="330" spans="5:5">
       <c r="E330" s="3" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="331" spans="5:5">
       <c r="E331" s="3" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="332" spans="5:5">
       <c r="E332" s="3" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="333" spans="5:5">
       <c r="E333" s="3" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="334" spans="5:5">
       <c r="E334" s="3" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="335" spans="5:5">
       <c r="E335" s="3" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="336" spans="5:5">
       <c r="E336" s="3" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="337" spans="5:5">
       <c r="E337" s="3" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="338" spans="5:5">
       <c r="E338" s="3" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="339" spans="5:5">
       <c r="E339" s="3" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="340" spans="5:5">
       <c r="E340" s="3" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="341" spans="5:5">
       <c r="E341" s="3" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="342" spans="5:5">
       <c r="E342" s="3" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="343" spans="5:5">
       <c r="E343" s="3" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="344" spans="5:5">
       <c r="E344" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="345" spans="5:5">
       <c r="E345" s="3" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="346" spans="5:5">
       <c r="E346" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="347" spans="5:5">
       <c r="E347" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="348" spans="5:5">
       <c r="E348" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="349" spans="5:5">
       <c r="E349" s="3" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="350" spans="5:5">
       <c r="E350" s="3" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="351" spans="5:5">
       <c r="E351" s="3" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="352" spans="5:5">
       <c r="E352" s="3" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="353" spans="5:5">
       <c r="E353" s="3" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="354" spans="5:5">
       <c r="E354" s="3" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="355" spans="5:5">
       <c r="E355" s="3" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="356" spans="5:5">
       <c r="E356" s="3" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="357" spans="5:5">
       <c r="E357" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="358" spans="5:5">
       <c r="E358" s="3" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="359" spans="5:5">
       <c r="E359" s="3" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="360" spans="5:5">
       <c r="E360" s="3" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="361" spans="5:5">
       <c r="E361" s="3" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="362" spans="5:5">
       <c r="E362" s="3" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="363" spans="5:5">
       <c r="E363" s="3" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="364" spans="5:5">
       <c r="E364" s="3" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="365" spans="5:5">
       <c r="E365" s="3" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="366" spans="5:5">
       <c r="E366" s="3" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="367" spans="5:5">
       <c r="E367" s="3" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="368" spans="5:5">
       <c r="E368" s="3" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="369" spans="5:5">
       <c r="E369" s="3" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="370" spans="5:5">
       <c r="E370" s="3" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="371" spans="5:5">
       <c r="E371" s="3" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="372" spans="5:5">
       <c r="E372" s="3" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="373" spans="5:5">
       <c r="E373" s="3" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="374" spans="5:5">
       <c r="E374" s="3" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
     </row>
     <row r="375" spans="5:5">
       <c r="E375" s="3" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="376" spans="5:5">
       <c r="E376" s="3" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="377" spans="5:5">
       <c r="E377" s="3" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="378" spans="5:5">
       <c r="E378" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="379" spans="5:5">
       <c r="E379" s="3" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="380" spans="5:5">
       <c r="E380" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="381" spans="5:5">
       <c r="E381" s="3" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="382" spans="5:5">
       <c r="E382" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="383" spans="5:5">
       <c r="E383" s="3" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="384" spans="5:5">
       <c r="E384" s="3" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="385" spans="5:5">
       <c r="E385" s="3" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="386" spans="5:5">
       <c r="E386" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="387" spans="5:5">
       <c r="E387" s="3" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="388" spans="5:5">
       <c r="E388" s="3" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="389" spans="5:5">
       <c r="E389" s="3" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="390" spans="5:5">
       <c r="E390" s="3" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="391" spans="5:5">
       <c r="E391" s="3" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="392" spans="5:5">
       <c r="E392" s="3" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="393" spans="5:5">
       <c r="E393" s="3" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="394" spans="5:5">
       <c r="E394" s="3" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="395" spans="5:5">
       <c r="E395" s="3" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="396" spans="5:5">
       <c r="E396" s="3" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
     </row>
     <row r="397" spans="5:5">
       <c r="E397" s="3" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="398" spans="5:5">
       <c r="E398" s="3" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="399" spans="5:5">
       <c r="E399" s="3" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
     </row>
     <row r="400" spans="5:5">
       <c r="E400" s="3" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
     </row>
     <row r="401" spans="5:5">
       <c r="E401" s="3" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
     </row>
     <row r="402" spans="5:5">
       <c r="E402" s="3" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
     </row>
     <row r="403" spans="5:5">
       <c r="E403" s="3" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="404" spans="5:5">
       <c r="E404" s="3" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
     </row>
     <row r="405" spans="5:5">
       <c r="E405" s="3" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="406" spans="5:5">
       <c r="E406" s="3" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="407" spans="5:5">
       <c r="E407" s="3" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="408" spans="5:5">
       <c r="E408" s="3" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
     </row>
     <row r="409" spans="5:5">
       <c r="E409" s="3" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
     <row r="410" spans="5:5">
       <c r="E410" s="3" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="411" spans="5:5">
       <c r="E411" s="3" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="412" spans="5:5">
       <c r="E412" s="3" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="413" spans="5:5">
       <c r="E413" s="3" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
     </row>
     <row r="414" spans="5:5">
       <c r="E414" s="3" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="415" spans="5:5">
       <c r="E415" s="3" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
     </row>
     <row r="416" spans="5:5">
       <c r="E416" s="3" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
     </row>
     <row r="417" spans="5:5">
       <c r="E417" s="3" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="418" spans="5:5">
       <c r="E418" s="3" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="419" spans="5:5">
       <c r="E419" s="3" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="420" spans="5:5">
       <c r="E420" s="3" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="421" spans="5:5">
       <c r="E421" s="3" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="422" spans="5:5">
       <c r="E422" s="3" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="423" spans="5:5">
       <c r="E423" s="3" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
     </row>
     <row r="424" spans="5:5">
       <c r="E424" s="3" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="425" spans="5:5">
       <c r="E425" s="3" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="426" spans="5:5">
       <c r="E426" s="3" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
     </row>
     <row r="427" spans="5:5">
       <c r="E427" s="3" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
     </row>
     <row r="428" spans="5:5">
       <c r="E428" s="3" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="429" spans="5:5">
       <c r="E429" s="3" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="430" spans="5:5">
       <c r="E430" s="3" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="431" spans="5:5">
       <c r="E431" s="3" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
     </row>
     <row r="432" spans="5:5">
       <c r="E432" s="3" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
     </row>
     <row r="433" spans="5:5">
       <c r="E433" s="3" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" spans="5:5">
       <c r="E434" s="3" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="435" spans="5:5">
       <c r="E435" s="3" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
     </row>
     <row r="436" spans="5:5">
       <c r="E436" s="3" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="437" spans="5:5">
       <c r="E437" s="3" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="438" spans="5:5">
       <c r="E438" s="3" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="439" spans="5:5">
       <c r="E439" s="3" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
     </row>
     <row r="440" spans="5:5">
       <c r="E440" s="3" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
     </row>
     <row r="441" spans="5:5">
       <c r="E441" s="3" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="442" spans="5:5">
       <c r="E442" s="3" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="443" spans="5:5">
       <c r="E443" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="444" spans="5:5">
       <c r="E444" s="3" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="445" spans="5:5">
       <c r="E445" s="3" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
     </row>
     <row r="446" spans="5:5">
       <c r="E446" s="3" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="447" spans="5:5">
       <c r="E447" s="3" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="448" spans="5:5">
       <c r="E448" s="3" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
     </row>
     <row r="449" spans="5:5">
       <c r="E449" s="3" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
     <row r="450" spans="5:5">
       <c r="E450" s="3" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="451" spans="5:5">
       <c r="E451" s="3" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
     </row>
     <row r="452" spans="5:5">
       <c r="E452" s="3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="453" spans="5:5">
       <c r="E453" s="3" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
     </row>
     <row r="454" spans="5:5">
       <c r="E454" s="3" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="455" spans="5:5">
       <c r="E455" s="3" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
     </row>
     <row r="456" spans="5:5">
       <c r="E456" s="3" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="457" spans="5:5">
       <c r="E457" s="3" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="458" spans="5:5">
       <c r="E458" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="459" spans="5:5">
       <c r="E459" s="3" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="460" spans="5:5">
       <c r="E460" s="3" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
     </row>
     <row r="461" spans="5:5">
       <c r="E461" s="3" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
     </row>
     <row r="462" spans="5:5">
       <c r="E462" s="3" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
     </row>
     <row r="463" spans="5:5">
       <c r="E463" s="3" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
     </row>
     <row r="464" spans="5:5">
       <c r="E464" s="3" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
     </row>
     <row r="465" spans="5:5">
       <c r="E465" s="3" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
     </row>
     <row r="466" spans="5:5">
       <c r="E466" s="3" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
     </row>
     <row r="467" spans="5:5">
       <c r="E467" s="3" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="468" spans="5:5">
       <c r="E468" s="3" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
     </row>
     <row r="469" spans="5:5">
       <c r="E469" s="3" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
     </row>
     <row r="470" spans="5:5">
       <c r="E470" s="3" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
     </row>
     <row r="471" spans="5:5">
       <c r="E471" s="3" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
     </row>
     <row r="472" spans="5:5">
       <c r="E472" s="3" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
     </row>
     <row r="473" spans="5:5">
       <c r="E473" s="3" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
     </row>
     <row r="474" spans="5:5">
       <c r="E474" s="3" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
     </row>
     <row r="475" spans="5:5">
       <c r="E475" s="3" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
     </row>
     <row r="476" spans="5:5">
       <c r="E476" s="3" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="477" spans="5:5">
       <c r="E477" s="3" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
     </row>
     <row r="478" spans="5:5">
       <c r="E478" s="3" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
     </row>
     <row r="479" spans="5:5">
       <c r="E479" s="3" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
     </row>
     <row r="480" spans="5:5">
       <c r="E480" s="3" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
     </row>
     <row r="481" spans="5:5">
       <c r="E481" s="3" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="482" spans="5:5">
       <c r="E482" s="3" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
     </row>
     <row r="483" spans="5:5">
       <c r="E483" s="3" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="484" spans="5:5">
       <c r="E484" s="3" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="485" spans="5:5">
       <c r="E485" s="3" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="486" spans="5:5">
       <c r="E486" s="3" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
     </row>
     <row r="487" spans="5:5">
       <c r="E487" s="3" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
     </row>
     <row r="488" spans="5:5">
       <c r="E488" s="3" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
     </row>
     <row r="489" spans="5:5">
       <c r="E489" s="3" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="490" spans="5:5">
       <c r="E490" s="3" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
     </row>
     <row r="491" spans="5:5">
       <c r="E491" s="3" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
     </row>
     <row r="492" spans="5:5">
       <c r="E492" s="3" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
     </row>
     <row r="493" spans="5:5">
       <c r="E493" s="3" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="494" spans="5:5">
       <c r="E494" s="3" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
     </row>
     <row r="495" spans="5:5">
       <c r="E495" s="3" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
     </row>
     <row r="496" spans="5:5">
       <c r="E496" s="3" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="497" spans="5:5">
       <c r="E497" s="3" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
     </row>
     <row r="498" spans="5:5">
       <c r="E498" s="3" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
     </row>
     <row r="499" spans="5:5">
       <c r="E499" s="3" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
     </row>
     <row r="500" spans="5:5">
       <c r="E500" s="3" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
     </row>
     <row r="501" spans="5:5">
       <c r="E501" s="3" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
     </row>
     <row r="502" spans="5:5">
       <c r="E502" s="3" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="503" spans="5:5">
       <c r="E503" s="3" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
     </row>
     <row r="504" spans="5:5">
       <c r="E504" s="3" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="505" spans="5:5">
       <c r="E505" s="3" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
     </row>
     <row r="506" spans="5:5">
       <c r="E506" s="3" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
     </row>
     <row r="507" spans="5:5">
       <c r="E507" s="3" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="508" spans="5:5">
       <c r="E508" s="3" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="509" spans="5:5">
       <c r="E509" s="3" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
     </row>
     <row r="510" spans="5:5">
       <c r="E510" s="3" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
     </row>
     <row r="511" spans="5:5">
       <c r="E511" s="3" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
     </row>
     <row r="512" spans="5:5">
       <c r="E512" s="3" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="513" spans="5:5">
       <c r="E513" s="3" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="514" spans="5:5">
       <c r="E514" s="3" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
     </row>
     <row r="515" spans="5:5">
       <c r="E515" s="3" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="5:5">
       <c r="E516" s="3" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
     </row>
     <row r="517" spans="5:5">
       <c r="E517" s="3" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
     </row>
     <row r="518" spans="5:5">
       <c r="E518" s="3" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
     </row>
     <row r="519" spans="5:5">
       <c r="E519" s="3" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
     </row>
     <row r="520" spans="5:5">
       <c r="E520" s="3" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
     </row>
     <row r="521" spans="5:5">
       <c r="E521" s="3" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="522" spans="5:5">
       <c r="E522" s="3" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
     </row>
     <row r="523" spans="5:5">
       <c r="E523" s="3" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
     </row>
     <row r="524" spans="5:5">
       <c r="E524" s="3" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
     </row>
     <row r="525" spans="5:5">
       <c r="E525" s="3" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
     </row>
     <row r="526" spans="5:5">
       <c r="E526" s="3" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
     </row>
     <row r="527" spans="5:5">
       <c r="E527" s="3" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
     </row>
     <row r="528" spans="5:5">
       <c r="E528" s="3" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
     </row>
     <row r="529" spans="5:5">
       <c r="E529" s="3" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
     </row>
     <row r="530" spans="5:5">
       <c r="E530" s="3" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
     </row>
     <row r="531" spans="5:5">
       <c r="E531" s="3" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
     </row>
     <row r="532" spans="5:5">
       <c r="E532" s="3" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
     </row>
     <row r="533" spans="5:5">
       <c r="E533" s="3" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
     </row>
     <row r="534" spans="5:5">
       <c r="E534" s="3" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
     </row>
     <row r="535" spans="5:5">
       <c r="E535" s="3" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
     </row>
     <row r="536" spans="5:5">
       <c r="E536" s="3" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
     </row>
     <row r="537" spans="5:5">
       <c r="E537" s="3" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
     </row>
     <row r="538" spans="5:5">
       <c r="E538" s="3" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
     </row>
     <row r="539" spans="5:5">
       <c r="E539" s="3" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
     </row>
     <row r="540" spans="5:5">
       <c r="E540" s="3" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
     </row>
     <row r="541" spans="5:5">
       <c r="E541" s="3" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
     </row>
     <row r="542" spans="5:5">
       <c r="E542" s="3" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
     </row>
     <row r="543" spans="5:5">
       <c r="E543" s="3" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
     </row>
     <row r="544" spans="5:5">
       <c r="E544" s="3" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
     </row>
     <row r="545" spans="5:5">
       <c r="E545" s="3" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
     </row>
     <row r="546" spans="5:5">
       <c r="E546" s="3" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
     </row>
     <row r="547" spans="5:5">
       <c r="E547" s="3" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
     </row>
     <row r="548" spans="5:5">
       <c r="E548" s="3" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
     </row>
     <row r="549" spans="5:5">
       <c r="E549" s="3" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
     </row>
     <row r="550" spans="5:5">
       <c r="E550" s="3" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
     </row>
     <row r="551" spans="5:5">
       <c r="E551" s="3" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
     </row>
     <row r="552" spans="5:5">
       <c r="E552" s="3" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
     </row>
     <row r="553" spans="5:5">
       <c r="E553" s="3" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="554" spans="5:5">
       <c r="E554" s="3" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
     </row>
     <row r="555" spans="5:5">
       <c r="E555" s="3" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
     </row>
     <row r="556" spans="5:5">
       <c r="E556" s="3" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
     </row>
     <row r="557" spans="5:5">
       <c r="E557" s="3" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
     </row>
     <row r="558" spans="5:5">
       <c r="E558" s="3" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
     </row>
     <row r="559" spans="5:5">
       <c r="E559" s="3" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
     </row>
     <row r="560" spans="5:5">
       <c r="E560" s="3" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
     </row>
     <row r="561" spans="5:5">
       <c r="E561" s="3" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
     </row>
     <row r="562" spans="5:5">
       <c r="E562" s="3" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
     </row>
     <row r="563" spans="5:5">
       <c r="E563" s="3" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
     </row>
     <row r="564" spans="5:5">
       <c r="E564" s="3" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
     </row>
     <row r="565" spans="5:5">
       <c r="E565" s="3" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
     </row>
     <row r="566" spans="5:5">
       <c r="E566" s="3" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
     </row>
     <row r="567" spans="5:5">
       <c r="E567" s="3" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
     </row>
     <row r="568" spans="5:5">
       <c r="E568" s="3" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
     </row>
     <row r="569" spans="5:5">
       <c r="E569" s="3" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
     </row>
     <row r="570" spans="5:5">
       <c r="E570" s="3" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
     </row>
     <row r="571" spans="5:5">
       <c r="E571" s="3" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
     </row>
     <row r="572" spans="5:5">
       <c r="E572" s="3" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
     </row>
     <row r="573" spans="5:5">
       <c r="E573" s="3" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="574" spans="5:5">
       <c r="E574" s="3" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
     </row>
     <row r="575" spans="5:5">
       <c r="E575" s="3" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
     </row>
     <row r="576" spans="5:5">
       <c r="E576" s="3" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
     </row>
     <row r="577" spans="5:5">
       <c r="E577" s="3" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
     </row>
     <row r="578" spans="5:5">
       <c r="E578" s="3" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
     </row>
     <row r="579" spans="5:5">
       <c r="E579" s="3" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
     </row>
     <row r="580" spans="5:5">
       <c r="E580" s="3" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
     </row>
     <row r="581" spans="5:5">
       <c r="E581" s="3" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
     </row>
     <row r="582" spans="5:5">
       <c r="E582" s="3" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
     </row>
     <row r="583" spans="5:5">
       <c r="E583" s="3" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
     </row>
     <row r="584" spans="5:5">
       <c r="E584" s="3" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
     </row>
     <row r="585" spans="5:5">
       <c r="E585" s="3" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
     </row>
     <row r="586" spans="5:5">
       <c r="E586" s="3" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
     </row>
     <row r="587" spans="5:5">
       <c r="E587" s="3" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
     </row>
     <row r="588" spans="5:5">
       <c r="E588" s="3" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
     </row>
     <row r="589" spans="5:5">
       <c r="E589" s="3" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
     </row>
     <row r="590" spans="5:5">
       <c r="E590" s="3" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
     </row>
     <row r="591" spans="5:5">
       <c r="E591" s="3" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
     </row>
     <row r="592" spans="5:5">
       <c r="E592" s="3" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
     </row>
     <row r="593" spans="5:5">
       <c r="E593" s="3" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
     </row>
     <row r="594" spans="5:5">
       <c r="E594" s="3" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
     </row>
     <row r="595" spans="5:5">
       <c r="E595" s="3" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
     </row>
     <row r="596" spans="5:5">
       <c r="E596" s="3" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
     </row>
     <row r="597" spans="5:5">
       <c r="E597" s="3" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
     </row>
     <row r="598" spans="5:5">
       <c r="E598" s="3" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
     </row>
     <row r="599" spans="5:5">
       <c r="E599" s="3" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="600" spans="5:5">
       <c r="E600" s="3" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
     </row>
     <row r="601" spans="5:5">
       <c r="E601" s="3" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
     </row>
     <row r="602" spans="5:5">
       <c r="E602" s="3" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
     </row>
     <row r="603" spans="5:5">
       <c r="E603" s="3" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="604" spans="5:5">
       <c r="E604" s="3" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
     </row>
     <row r="605" spans="5:5">
       <c r="E605" s="3" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
     </row>
     <row r="606" spans="5:5">
       <c r="E606" s="3" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
     </row>
     <row r="607" spans="5:5">
       <c r="E607" s="3" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
     </row>
     <row r="608" spans="5:5">
       <c r="E608" s="3" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
     </row>
     <row r="609" spans="5:5">
       <c r="E609" s="3" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
     </row>
     <row r="610" spans="5:5">
       <c r="E610" s="3" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
     </row>
     <row r="611" spans="5:5">
       <c r="E611" s="3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="612" spans="5:5">
       <c r="E612" s="3" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
     </row>
     <row r="613" spans="5:5">
       <c r="E613" s="3" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
     </row>
     <row r="614" spans="5:5">
       <c r="E614" s="3" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
     </row>
     <row r="615" spans="5:5">
       <c r="E615" s="3" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
     </row>
     <row r="616" spans="5:5">
       <c r="E616" s="3" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
     </row>
     <row r="617" spans="5:5">
       <c r="E617" s="3" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
     </row>
     <row r="618" spans="5:5">
       <c r="E618" s="3" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
     </row>
     <row r="619" spans="5:5">
       <c r="E619" s="3" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="620" spans="5:5">
       <c r="E620" s="3" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
     </row>
     <row r="621" spans="5:5">
       <c r="E621" s="3" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
     </row>
     <row r="622" spans="5:5">
       <c r="E622" s="3" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
     </row>
     <row r="623" spans="5:5">
       <c r="E623" s="3" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
     </row>
     <row r="624" spans="5:5">
       <c r="E624" s="3" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
     </row>
     <row r="625" spans="5:5">
       <c r="E625" s="3" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
     </row>
     <row r="626" spans="5:5">
       <c r="E626" s="3" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
     </row>
     <row r="627" spans="5:5">
       <c r="E627" s="3" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
     </row>
     <row r="628" spans="5:5">
       <c r="E628" s="3" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
     </row>
     <row r="629" spans="5:5">
       <c r="E629" s="3" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
     </row>
     <row r="630" spans="5:5">
       <c r="E630" s="3" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
     </row>
     <row r="631" spans="5:5">
       <c r="E631" s="3" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
     </row>
     <row r="632" spans="5:5">
       <c r="E632" s="3" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
     </row>
     <row r="633" spans="5:5">
       <c r="E633" s="3" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
     </row>
     <row r="634" spans="5:5">
       <c r="E634" s="3" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
     </row>
     <row r="635" spans="5:5">
       <c r="E635" s="3" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
     </row>
     <row r="636" spans="5:5">
       <c r="E636" s="3" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
     </row>
     <row r="637" spans="5:5">
       <c r="E637" s="3" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
     </row>
     <row r="638" spans="5:5">
       <c r="E638" s="3" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
     </row>
     <row r="639" spans="5:5">
       <c r="E639" s="3" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
     </row>
     <row r="640" spans="5:5">
       <c r="E640" s="3" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
     </row>
     <row r="641" spans="5:5">
       <c r="E641" s="3" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
     </row>
     <row r="642" spans="5:5">
       <c r="E642" s="3" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
     </row>
     <row r="643" spans="5:5">
       <c r="E643" s="3" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
     </row>
     <row r="644" spans="5:5">
       <c r="E644" s="3" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
     </row>
     <row r="645" spans="5:5">
       <c r="E645" s="3" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
     </row>
     <row r="646" spans="5:5">
       <c r="E646" s="3" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="DB84" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
